--- a/app/src/main/resources/tabel inputs .xlsx
+++ b/app/src/main/resources/tabel inputs .xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahelmazemi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahelmazemi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2637B458-49C7-DF49-8447-CFB695E4BC9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F4ABA-50EC-574E-A517-FDEBA3826EB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="460" windowWidth="20060" windowHeight="14640" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="460" windowWidth="20060" windowHeight="14640" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity_iD" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>Hepatits C</t>
   </si>
   <si>
-    <t xml:space="preserve">True </t>
-  </si>
-  <si>
     <t xml:space="preserve">HepatitsB </t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Heart</t>
+  </si>
+  <si>
+    <t>l0003</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5862F565-3F93-4045-B8BE-BAA1E0F5BD31}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -815,13 +815,13 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A447BF5E-6A2C-574F-9BD8-B743987E9734}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1529,16 +1529,16 @@
         <v>80</v>
       </c>
       <c r="V1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W1" t="s">
         <v>81</v>
       </c>
       <c r="X1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1548,26 +1548,26 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" t="b">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1577,58 +1577,58 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" t="b">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>10003</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="X4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="b">
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
